--- a/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,7</t>
+          <t>-5,02; 5,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 12,55</t>
+          <t>0,22; 12,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 5,24</t>
+          <t>-5,61; 5,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 8,22</t>
+          <t>-2,73; 8,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,7</t>
+          <t>-3,85; 4,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 8,57</t>
+          <t>0,75; 8,63</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 62,14</t>
+          <t>-35,34; 73,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 150,6</t>
+          <t>1,64; 157,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 52,99</t>
+          <t>-39,32; 61,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 85,96</t>
+          <t>-16,97; 88,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 37,38</t>
+          <t>-27,41; 43,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 87,04</t>
+          <t>4,41; 89,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,34</t>
+          <t>-5,28; 1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,31</t>
+          <t>-2,55; 4,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,39</t>
+          <t>4,27; 13,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 1,32</t>
+          <t>-5,76; 1,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,71</t>
+          <t>-5,88; 1,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,9</t>
+          <t>3,69; 11,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,12</t>
+          <t>-4,25; 0,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,94</t>
+          <t>-2,99; 2,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,96</t>
+          <t>4,9; 10,76</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 27,97</t>
+          <t>-60,56; 31,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 81,0</t>
+          <t>-29,82; 78,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,93; 247,6</t>
+          <t>45,86; 245,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,17; 19,63</t>
+          <t>-49,73; 16,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 23,77</t>
+          <t>-49,03; 23,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 160,51</t>
+          <t>32,3; 163,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 2,72</t>
+          <t>-46,01; 7,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 29,96</t>
+          <t>-31,22; 29,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,94; 159,03</t>
+          <t>53,76; 153,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,14</t>
+          <t>-3,73; 4,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 6,95</t>
+          <t>-1,99; 6,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,94</t>
+          <t>7,0; 17,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 10,09</t>
+          <t>0,08; 9,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,25</t>
+          <t>0,13; 10,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,8</t>
+          <t>7,73; 17,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 6,19</t>
+          <t>-0,27; 5,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,03</t>
+          <t>0,58; 7,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,02</t>
+          <t>9,19; 16,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 110,16</t>
+          <t>-41,11; 93,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 142,83</t>
+          <t>-23,1; 127,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,74; 331,18</t>
+          <t>68,58; 364,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 157,14</t>
+          <t>-1,14; 147,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 156,45</t>
+          <t>-0,54; 155,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,43; 278,99</t>
+          <t>62,36; 267,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 91,79</t>
+          <t>-4,22; 89,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 107,83</t>
+          <t>4,8; 109,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,95; 250,23</t>
+          <t>95,08; 255,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,22</t>
+          <t>0,01; 6,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,92</t>
+          <t>1,58; 9,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,34; 22,27</t>
+          <t>10,47; 21,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 2,39</t>
+          <t>-5,17; 2,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,16</t>
+          <t>-1,23; 8,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 15,28</t>
+          <t>6,01; 15,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,57</t>
+          <t>-1,33; 3,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,03</t>
+          <t>1,2; 7,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,39; 16,63</t>
+          <t>9,68; 16,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 159,14</t>
+          <t>-0,65; 155,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18,21; 249,18</t>
+          <t>21,75; 244,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>125,25; 562,44</t>
+          <t>137,47; 535,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 34,7</t>
+          <t>-41,32; 33,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 105,93</t>
+          <t>-11,25; 105,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,77; 207,9</t>
+          <t>48,33; 193,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 56,24</t>
+          <t>-14,97; 56,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,58; 127,66</t>
+          <t>12,45; 123,9</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>100,21; 266,27</t>
+          <t>105,1; 270,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,45</t>
+          <t>-10,41; 0,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 12,31</t>
+          <t>-1,27; 11,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,79; 22,61</t>
+          <t>8,32; 21,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,57</t>
+          <t>-0,87; 7,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,26</t>
+          <t>0,52; 11,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,6; 18,38</t>
+          <t>7,19; 18,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,6</t>
+          <t>-3,96; 2,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,17</t>
+          <t>1,51; 8,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,05</t>
+          <t>9,22; 18,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,37; 12,42</t>
+          <t>-77,33; 10,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 182,54</t>
+          <t>-12,13; 165,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>66,43; 355,99</t>
+          <t>67,64; 347,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 371,5</t>
+          <t>-22,88; 377,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 468,47</t>
+          <t>-3,38; 513,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>113,33; 875,83</t>
+          <t>117,99; 971,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 55,47</t>
+          <t>-48,59; 58,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,02; 191,56</t>
+          <t>16,84; 182,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>108,31; 371,56</t>
+          <t>108,34; 379,11</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,33</t>
+          <t>-5,34; 4,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 8,36</t>
+          <t>-1,93; 9,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,54; 24,63</t>
+          <t>13,16; 24,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,66</t>
+          <t>-3,31; 7,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 6,93</t>
+          <t>-2,91; 7,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,42</t>
+          <t>4,52; 14,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,23</t>
+          <t>-3,02; 4,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,08</t>
+          <t>-1,37; 6,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,13</t>
+          <t>10,35; 18,11</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 71,3</t>
+          <t>-50,34; 71,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 136,39</t>
+          <t>-21,36; 150,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>123,9; 443,54</t>
+          <t>115,45; 415,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 83,51</t>
+          <t>-24,9; 82,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 77,69</t>
+          <t>-22,87; 89,99</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,59; 169,0</t>
+          <t>29,38; 168,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 51,82</t>
+          <t>-26,94; 58,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 79,43</t>
+          <t>-12,21; 83,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>87,57; 233,46</t>
+          <t>85,37; 237,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,36</t>
+          <t>-1,65; 5,37</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,32</t>
+          <t>7,54; 15,31</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,73; 14,38</t>
+          <t>7,09; 14,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,12</t>
+          <t>-0,5; 6,57</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,58</t>
+          <t>8,1; 15,82</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 7,1</t>
+          <t>-1,09; 7,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,89</t>
+          <t>0,26; 4,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,2</t>
+          <t>8,99; 14,47</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,39</t>
+          <t>2,84; 9,44</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 95,92</t>
+          <t>-18,6; 96,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>83,97; 275,94</t>
+          <t>79,2; 265,76</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>75,43; 251,38</t>
+          <t>77,13; 254,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 89,8</t>
+          <t>-5,52; 96,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>77,52; 247,84</t>
+          <t>79,41; 236,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 102,67</t>
+          <t>-10,23; 101,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,17; 71,82</t>
+          <t>3,01; 74,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>98,86; 211,02</t>
+          <t>100,7; 216,34</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,91; 138,77</t>
+          <t>37,1; 146,14</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,48; 7,4</t>
+          <t>1,6; 7,65</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,53</t>
+          <t>3,43; 9,49</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,95; 9,43</t>
+          <t>3,21; 9,36</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,25</t>
+          <t>-0,73; 5,15</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,08</t>
+          <t>1,86; 7,97</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,43</t>
+          <t>8,14; 14,34</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,49</t>
+          <t>1,42; 5,52</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,55</t>
+          <t>3,29; 7,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,15</t>
+          <t>6,54; 11,18</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>20,24; 149,6</t>
+          <t>22,27; 160,69</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>44,74; 186,3</t>
+          <t>45,79; 207,41</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>43,68; 197,82</t>
+          <t>45,77; 194,96</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 85,84</t>
+          <t>-6,69; 87,73</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,63; 132,16</t>
+          <t>20,13; 129,29</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>91,5; 236,75</t>
+          <t>90,16; 239,28</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>16,04; 91,97</t>
+          <t>16,69; 91,66</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>44,53; 127,87</t>
+          <t>41,38; 129,46</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>85,85; 187,38</t>
+          <t>81,71; 187,37</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,48</t>
+          <t>-0,38; 2,35</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,81</t>
+          <t>3,71; 6,63</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,28</t>
+          <t>8,76; 12,35</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,7</t>
+          <t>-0,23; 2,64</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,98</t>
+          <t>2,91; 6,17</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,14</t>
+          <t>6,64; 10,02</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,12</t>
+          <t>0,08; 2,11</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,01</t>
+          <t>3,73; 5,98</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>8,21; 10,69</t>
+          <t>8,12; 10,82</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 37,52</t>
+          <t>-4,82; 35,81</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>47,44; 103,41</t>
+          <t>44,79; 101,2</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>113,53; 190,41</t>
+          <t>107,25; 186,23</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,63</t>
+          <t>-2,48; 33,27</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>31,07; 74,0</t>
+          <t>30,8; 76,54</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>71,77; 124,56</t>
+          <t>71,19; 126,13</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,79; 28,32</t>
+          <t>0,9; 27,62</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>42,87; 79,5</t>
+          <t>44,05; 78,93</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>96,85; 141,62</t>
+          <t>94,7; 144,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 5,96</t>
+          <t>-5,42; 5,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 12,37</t>
+          <t>0,84; 12,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 5,5</t>
+          <t>-5,82; 6,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 8,32</t>
+          <t>-2,5; 8,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,09</t>
+          <t>-4,4; 3,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,63</t>
+          <t>0,55; 8,68</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 73,84</t>
+          <t>-39,35; 64,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 157,36</t>
+          <t>2,49; 144,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 61,33</t>
+          <t>-36,71; 62,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 88,98</t>
+          <t>-15,9; 81,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 43,08</t>
+          <t>-30,96; 38,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 89,53</t>
+          <t>1,46; 85,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,48</t>
+          <t>-5,13; 1,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,43</t>
+          <t>-2,62; 4,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 13,03</t>
+          <t>4,4; 13,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,22</t>
+          <t>-5,49; 1,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 1,52</t>
+          <t>-5,49; 1,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 11,75</t>
+          <t>3,86; 11,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,5</t>
+          <t>-4,38; 0,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,16</t>
+          <t>-3,1; 1,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,9; 10,76</t>
+          <t>5,19; 11,08</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,56; 31,9</t>
+          <t>-59,59; 33,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 78,44</t>
+          <t>-30,42; 81,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,86; 245,74</t>
+          <t>48,53; 244,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 16,45</t>
+          <t>-50,05; 18,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 23,89</t>
+          <t>-49,07; 20,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,3; 163,89</t>
+          <t>31,89; 158,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 7,62</t>
+          <t>-46,49; 7,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 29,47</t>
+          <t>-33,21; 26,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,76; 153,45</t>
+          <t>54,82; 162,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 4,55</t>
+          <t>-3,78; 4,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,31</t>
+          <t>-2,35; 6,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 17,51</t>
+          <t>6,95; 17,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 9,66</t>
+          <t>0,26; 9,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 10,42</t>
+          <t>0,18; 10,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 17,76</t>
+          <t>7,96; 17,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,95</t>
+          <t>-0,64; 6,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 7,31</t>
+          <t>0,41; 7,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 16,23</t>
+          <t>8,87; 16,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 93,92</t>
+          <t>-41,15; 90,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 127,86</t>
+          <t>-25,43; 145,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,58; 364,2</t>
+          <t>69,1; 374,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 147,78</t>
+          <t>-0,36; 149,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 155,61</t>
+          <t>0,76; 150,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,36; 267,19</t>
+          <t>67,9; 284,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 89,2</t>
+          <t>-7,34; 96,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,8; 109,49</t>
+          <t>3,94; 119,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,08; 255,08</t>
+          <t>88,82; 259,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 6,25</t>
+          <t>-0,52; 6,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,83</t>
+          <t>1,49; 9,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,47; 21,84</t>
+          <t>10,33; 21,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 2,63</t>
+          <t>-5,06; 2,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,14</t>
+          <t>-1,45; 8,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 15,09</t>
+          <t>5,85; 15,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,62</t>
+          <t>-1,47; 3,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 7,75</t>
+          <t>1,36; 7,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,68; 16,92</t>
+          <t>9,68; 17,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 155,08</t>
+          <t>-8,24; 166,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,75; 244,25</t>
+          <t>17,41; 250,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>137,47; 535,35</t>
+          <t>136,31; 572,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 33,79</t>
+          <t>-40,37; 33,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 105,38</t>
+          <t>-12,31; 108,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>48,33; 193,33</t>
+          <t>47,32; 194,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 56,23</t>
+          <t>-15,52; 58,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,45; 123,9</t>
+          <t>15,26; 121,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>105,1; 270,23</t>
+          <t>102,86; 256,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 0,03</t>
+          <t>-9,6; 0,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 11,27</t>
+          <t>-1,08; 10,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,32; 21,42</t>
+          <t>7,75; 21,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,9</t>
+          <t>-1,22; 7,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 11,06</t>
+          <t>0,77; 10,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,19; 18,47</t>
+          <t>7,43; 18,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 2,87</t>
+          <t>-4,04; 2,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,89</t>
+          <t>1,24; 9,29</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,22; 18,19</t>
+          <t>9,23; 18,19</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,33; 10,19</t>
+          <t>-77,35; 7,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 165,46</t>
+          <t>-9,59; 157,82</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>67,64; 347,86</t>
+          <t>58,06; 367,89</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 377,33</t>
+          <t>-28,74; 355,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 513,95</t>
+          <t>-0,79; 475,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>117,99; 971,86</t>
+          <t>113,34; 957,9</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 58,22</t>
+          <t>-48,98; 51,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>16,84; 182,71</t>
+          <t>11,34; 192,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>108,34; 379,11</t>
+          <t>97,74; 352,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 4,09</t>
+          <t>-4,66; 4,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 9,3</t>
+          <t>-1,95; 8,55</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,16; 24,51</t>
+          <t>13,52; 24,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,11</t>
+          <t>-3,42; 7,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,94</t>
+          <t>-2,89; 7,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,34</t>
+          <t>4,29; 15,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,6</t>
+          <t>-2,69; 4,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 6,59</t>
+          <t>-1,17; 6,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,35; 18,11</t>
+          <t>10,49; 17,93</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 71,79</t>
+          <t>-47,23; 85,19</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 150,06</t>
+          <t>-22,27; 145,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>115,45; 415,4</t>
+          <t>117,4; 428,36</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,9; 82,64</t>
+          <t>-26,43; 97,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 89,99</t>
+          <t>-22,95; 88,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>29,38; 168,62</t>
+          <t>29,87; 182,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 58,65</t>
+          <t>-23,49; 56,49</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 83,15</t>
+          <t>-10,06; 81,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>85,37; 237,27</t>
+          <t>90,92; 239,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 5,37</t>
+          <t>-0,72; 5,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7,54; 15,31</t>
+          <t>7,81; 15,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,55</t>
+          <t>6,97; 14,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,57</t>
+          <t>-0,5; 6,55</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,82</t>
+          <t>7,75; 15,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,2</t>
+          <t>-1,94; 6,93</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,26; 4,91</t>
+          <t>0,22; 5,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,99; 14,47</t>
+          <t>8,86; 14,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,84; 9,44</t>
+          <t>3,01; 9,42</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 96,93</t>
+          <t>-9,1; 96,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>79,2; 265,76</t>
+          <t>90,1; 286,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>77,13; 254,74</t>
+          <t>79,19; 271,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 96,25</t>
+          <t>-6,72; 98,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>79,41; 236,7</t>
+          <t>79,14; 226,92</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 101,04</t>
+          <t>-17,08; 96,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,01; 74,56</t>
+          <t>1,82; 75,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>100,7; 216,34</t>
+          <t>100,74; 220,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>37,1; 146,14</t>
+          <t>39,38; 143,25</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,65</t>
+          <t>1,67; 7,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,49</t>
+          <t>3,54; 9,49</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,36</t>
+          <t>3,1; 9,6</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,15</t>
+          <t>-0,82; 5,07</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,97</t>
+          <t>1,57; 7,8</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,34</t>
+          <t>7,89; 14,08</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,52</t>
+          <t>1,34; 5,65</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,71</t>
+          <t>3,45; 7,71</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,18</t>
+          <t>6,5; 11,05</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>22,27; 160,69</t>
+          <t>21,0; 154,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>45,79; 207,41</t>
+          <t>45,63; 198,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>45,77; 194,96</t>
+          <t>43,32; 196,86</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 87,73</t>
+          <t>-10,14; 83,65</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,13; 129,29</t>
+          <t>16,19; 127,98</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>90,16; 239,28</t>
+          <t>82,94; 237,13</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>16,69; 91,66</t>
+          <t>16,43; 96,92</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>41,38; 129,46</t>
+          <t>43,67; 130,32</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>81,71; 187,37</t>
+          <t>84,58; 190,21</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,35</t>
+          <t>-0,4; 2,42</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,63</t>
+          <t>3,9; 6,93</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,35</t>
+          <t>8,81; 12,44</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,64</t>
+          <t>-0,25; 2,62</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,17</t>
+          <t>2,94; 6,06</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,02</t>
+          <t>6,55; 10,12</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,11</t>
+          <t>0,05; 1,99</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,98</t>
+          <t>3,83; 5,98</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,82</t>
+          <t>8,25; 10,77</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 35,81</t>
+          <t>-5,39; 36,1</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>44,79; 101,2</t>
+          <t>48,45; 104,15</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>107,25; 186,23</t>
+          <t>109,48; 185,74</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,27</t>
+          <t>-2,58; 33,02</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>30,8; 76,54</t>
+          <t>31,76; 76,65</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>71,19; 126,13</t>
+          <t>70,98; 126,56</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>0,9; 27,62</t>
+          <t>0,61; 26,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>44,05; 78,93</t>
+          <t>45,3; 80,16</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>94,7; 144,11</t>
+          <t>96,44; 143,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 5,32</t>
+          <t>-5,21; 5,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 12,7</t>
+          <t>0,67; 12,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 6,03</t>
+          <t>-5,93; 5,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 8,15</t>
+          <t>-3,02; 8,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 3,89</t>
+          <t>-4,3; 3,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 8,68</t>
+          <t>0,58; 8,57</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,35; 64,83</t>
+          <t>-38,66; 62,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 144,99</t>
+          <t>3,67; 150,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 62,91</t>
+          <t>-39,02; 52,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 81,85</t>
+          <t>-18,45; 85,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 38,73</t>
+          <t>-30,11; 37,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 85,7</t>
+          <t>3,72; 87,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 1,64</t>
+          <t>-5,63; 1,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 4,54</t>
+          <t>-2,42; 4,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 13,24</t>
+          <t>4,2; 13,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,42</t>
+          <t>-5,61; 1,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,51</t>
+          <t>-5,48; 1,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,55</t>
+          <t>4,14; 11,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,42</t>
+          <t>-4,65; 0,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,79</t>
+          <t>-2,97; 1,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 11,08</t>
+          <t>5,16; 10,96</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 33,17</t>
+          <t>-61,15; 27,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 81,87</t>
+          <t>-27,87; 81,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,53; 244,51</t>
+          <t>46,93; 247,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 18,41</t>
+          <t>-50,17; 19,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 20,62</t>
+          <t>-47,37; 23,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,89; 158,46</t>
+          <t>36,1; 160,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,49; 7,53</t>
+          <t>-47,21; 2,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 26,52</t>
+          <t>-31,08; 29,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>54,82; 162,99</t>
+          <t>53,94; 159,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 4,4</t>
+          <t>-3,56; 5,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 6,71</t>
+          <t>-1,57; 6,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,95; 17,6</t>
+          <t>7,0; 16,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 9,77</t>
+          <t>-0,02; 10,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 10,03</t>
+          <t>0,4; 10,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 17,7</t>
+          <t>8,59; 17,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,22</t>
+          <t>-0,27; 6,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 7,3</t>
+          <t>0,48; 7,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,13</t>
+          <t>9,48; 16,02</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 90,68</t>
+          <t>-39,64; 110,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 145,93</t>
+          <t>-20,97; 142,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,1; 374,98</t>
+          <t>64,74; 331,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 149,52</t>
+          <t>-1,87; 157,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 150,93</t>
+          <t>2,93; 156,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,9; 284,65</t>
+          <t>70,43; 278,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 96,69</t>
+          <t>-4,01; 91,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 119,53</t>
+          <t>3,6; 107,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>88,82; 259,55</t>
+          <t>93,95; 250,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,29</t>
+          <t>-0,16; 6,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 9,99</t>
+          <t>1,6; 9,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,33; 21,88</t>
+          <t>10,34; 22,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 2,7</t>
+          <t>-4,47; 2,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 8,46</t>
+          <t>-0,89; 8,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,85; 15,04</t>
+          <t>6,08; 15,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,62</t>
+          <t>-1,25; 3,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 7,78</t>
+          <t>1,6; 8,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,68; 17,05</t>
+          <t>9,39; 16,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 166,96</t>
+          <t>-3,35; 159,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,41; 250,11</t>
+          <t>18,21; 249,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>136,31; 572,24</t>
+          <t>125,25; 562,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 33,88</t>
+          <t>-37,87; 34,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 108,69</t>
+          <t>-9,15; 105,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,32; 194,69</t>
+          <t>51,77; 207,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 58,09</t>
+          <t>-14,27; 56,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,26; 121,89</t>
+          <t>16,58; 127,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>102,86; 256,76</t>
+          <t>100,21; 266,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 0,36</t>
+          <t>-9,79; 0,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 10,98</t>
+          <t>-0,53; 12,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,75; 21,84</t>
+          <t>8,79; 22,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 7,64</t>
+          <t>-0,51; 7,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 10,39</t>
+          <t>0,31; 10,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,43; 18,89</t>
+          <t>7,6; 18,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,43</t>
+          <t>-4,39; 2,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,29</t>
+          <t>1,08; 9,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,23; 18,19</t>
+          <t>9,02; 18,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,35; 7,54</t>
+          <t>-77,37; 12,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 157,82</t>
+          <t>-8,53; 182,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>58,06; 367,89</t>
+          <t>66,43; 355,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 355,81</t>
+          <t>-15,9; 371,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 475,59</t>
+          <t>-3,47; 468,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>113,34; 957,9</t>
+          <t>113,33; 875,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 51,34</t>
+          <t>-51,03; 55,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,34; 192,1</t>
+          <t>11,02; 191,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>97,74; 352,07</t>
+          <t>108,31; 371,56</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,46</t>
+          <t>-4,97; 4,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 8,55</t>
+          <t>-1,74; 8,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,52; 24,36</t>
+          <t>13,54; 24,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 7,78</t>
+          <t>-3,59; 7,66</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 7,75</t>
+          <t>-3,57; 6,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,29; 15,13</t>
+          <t>3,61; 14,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,59</t>
+          <t>-2,81; 4,23</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,35</t>
+          <t>-1,36; 6,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,49; 17,93</t>
+          <t>10,42; 18,13</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 85,19</t>
+          <t>-50,57; 71,3</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 145,61</t>
+          <t>-18,85; 136,39</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>117,4; 428,36</t>
+          <t>123,9; 443,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 97,31</t>
+          <t>-27,45; 83,51</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 88,43</t>
+          <t>-26,52; 77,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>29,87; 182,29</t>
+          <t>22,59; 169,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 56,49</t>
+          <t>-24,68; 51,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 81,16</t>
+          <t>-11,73; 79,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>90,92; 239,0</t>
+          <t>87,57; 233,46</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,53</t>
+          <t>-1,17; 5,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7,81; 15,81</t>
+          <t>7,51; 15,32</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,97; 14,79</t>
+          <t>6,73; 14,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,55</t>
+          <t>-0,38; 6,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,75; 15,64</t>
+          <t>7,98; 15,58</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,93</t>
+          <t>-1,85; 7,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,07</t>
+          <t>0,13; 4,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,86; 14,25</t>
+          <t>8,87; 14,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,42</t>
+          <t>3,01; 9,39</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 96,18</t>
+          <t>-14,36; 95,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>90,1; 286,99</t>
+          <t>83,97; 275,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>79,19; 271,11</t>
+          <t>75,43; 251,38</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 98,27</t>
+          <t>-3,92; 89,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>79,14; 226,92</t>
+          <t>77,52; 247,84</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 96,78</t>
+          <t>-13,17; 102,67</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,82; 75,6</t>
+          <t>1,17; 71,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>100,74; 220,0</t>
+          <t>98,86; 211,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>39,38; 143,25</t>
+          <t>36,91; 138,77</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,73</t>
+          <t>1,48; 7,4</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,54; 9,49</t>
+          <t>3,63; 9,53</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,1; 9,6</t>
+          <t>2,95; 9,43</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,07</t>
+          <t>-0,5; 5,25</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,57; 7,8</t>
+          <t>1,94; 8,08</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>7,89; 14,08</t>
+          <t>8,3; 14,43</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,65</t>
+          <t>1,3; 5,49</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,71</t>
+          <t>3,49; 7,55</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,5; 11,05</t>
+          <t>6,56; 11,15</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>21,0; 154,91</t>
+          <t>20,24; 149,6</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>45,63; 198,95</t>
+          <t>44,74; 186,3</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>43,32; 196,86</t>
+          <t>43,68; 197,82</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 83,65</t>
+          <t>-6,24; 85,84</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>16,19; 127,98</t>
+          <t>20,63; 132,16</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>82,94; 237,13</t>
+          <t>91,5; 236,75</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>16,43; 96,92</t>
+          <t>16,04; 91,97</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>43,67; 130,32</t>
+          <t>44,53; 127,87</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>84,58; 190,21</t>
+          <t>85,85; 187,38</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,42</t>
+          <t>-0,24; 2,48</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,93</t>
+          <t>3,81; 6,81</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,44</t>
+          <t>8,96; 12,28</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,62</t>
+          <t>-0,2; 2,7</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,06</t>
+          <t>2,98; 5,98</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,12</t>
+          <t>6,85; 10,14</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,99</t>
+          <t>0,16; 2,12</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,98</t>
+          <t>3,7; 6,01</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,77</t>
+          <t>8,21; 10,69</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 36,1</t>
+          <t>-3,37; 37,52</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>48,45; 104,15</t>
+          <t>47,44; 103,41</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>109,48; 185,74</t>
+          <t>113,53; 190,41</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 33,02</t>
+          <t>-2,48; 33,63</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>31,76; 76,65</t>
+          <t>31,07; 74,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>70,98; 126,56</t>
+          <t>71,77; 124,56</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>0,61; 26,51</t>
+          <t>1,79; 28,32</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>45,3; 80,16</t>
+          <t>42,87; 79,5</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>96,44; 143,38</t>
+          <t>96,85; 141,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>4,44</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 1,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 12,55</t>
+          <t>0,52; 13,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 1,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 8,22</t>
+          <t>-3,56; 7,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,37; 0,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 8,57</t>
+          <t>0,22; 8,6</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,97%</t>
+          <t>56,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
+          <t>36,97%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,74; 13,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 150,6</t>
+          <t>1,79; 156,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,52; 14,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 85,96</t>
+          <t>-21,32; 79,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,93; 1,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 87,04</t>
+          <t>1,47; 87,56</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>7,89</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,39</t>
+          <t>3,83; 12,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,9</t>
+          <t>4,11; 11,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 10,96</t>
+          <t>4,96; 10,69</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>121,81%</t>
+          <t>115,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>99,86%</t>
+          <t>96,07%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,93; 247,6</t>
+          <t>41,41; 238,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,1; 160,51</t>
+          <t>33,39; 157,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,94; 159,03</t>
+          <t>51,12; 154,98</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,07</t>
+          <t>12,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>12,34</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 16,94</t>
+          <t>6,69; 16,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,8</t>
+          <t>8,32; 17,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 16,02</t>
+          <t>9,12; 15,62</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>174,11%</t>
+          <t>169,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>148,63%</t>
+          <t>144,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>160,42%</t>
+          <t>155,86%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64,74; 331,18</t>
+          <t>62,75; 333,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,43; 278,99</t>
+          <t>67,09; 271,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>93,95; 250,23</t>
+          <t>89,67; 243,69</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,93</t>
+          <t>15,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,13</t>
+          <t>11,16</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,22</t>
+          <t>0,2; 8,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,34; 22,27</t>
+          <t>10,21; 22,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 2,39</t>
+          <t>-4,99; 3,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 15,28</t>
+          <t>-0,38; 13,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 3,57</t>
+          <t>-1,13; 4,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,39; 16,63</t>
+          <t>5,46; 15,17</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>70,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>282,8%</t>
+          <t>283,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,38%</t>
+          <t>-9,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>108,22%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>169,65%</t>
+          <t>144,09%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 159,14</t>
+          <t>-0,76; 211,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>125,25; 562,44</t>
+          <t>129,18; 572,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 34,7</t>
+          <t>-42,41; 42,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>51,77; 207,9</t>
+          <t>2,48; 160,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 56,24</t>
+          <t>-13,71; 76,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>100,21; 266,27</t>
+          <t>65,98; 236,54</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,74</t>
+          <t>12,02</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,03</t>
+          <t>12,87</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,79; 22,61</t>
+          <t>8,89; 22,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,6; 18,38</t>
+          <t>3,74; 17,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9,02; 18,05</t>
+          <t>5,85; 17,38</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>161,17%</t>
+          <t>161,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>352,88%</t>
+          <t>308,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>211,19%</t>
+          <t>193,78%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>66,43; 355,99</t>
+          <t>67,27; 356,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>113,33; 875,83</t>
+          <t>77,65; 785,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>108,31; 371,56</t>
+          <t>75,03; 347,34</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>18,86</t>
+          <t>18,77</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>14,17</t>
+          <t>14,2</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,54; 24,63</t>
+          <t>13,43; 24,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,61; 14,42</t>
+          <t>3,67; 14,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,13</t>
+          <t>10,41; 18,2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>232,54%</t>
+          <t>231,37%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>84,62%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>145,88%</t>
+          <t>146,26%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>123,9; 443,54</t>
+          <t>122,17; 440,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,59; 169,0</t>
+          <t>22,89; 170,08</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>87,57; 233,46</t>
+          <t>87,64; 235,77</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>5,65</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,73; 14,38</t>
+          <t>6,31; 13,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 7,1</t>
+          <t>-4,99; 6,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,39</t>
+          <t>0,05; 8,56</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>153,85%</t>
+          <t>146,81%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>43,4%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>73,26%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>75,43; 251,38</t>
+          <t>70,73; 242,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 102,67</t>
+          <t>-44,46; 87,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,91; 138,77</t>
+          <t>5,67; 123,85</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>11,18</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>6,89</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,95; 9,43</t>
+          <t>-2,65; 8,21</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,43</t>
+          <t>8,23; 14,43</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>6,56; 11,15</t>
+          <t>1,23; 10,02</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>105,5%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>151,45%</t>
+          <t>150,95%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>130,34%</t>
+          <t>101,98%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>43,68; 197,82</t>
+          <t>-33,33; 152,11</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>91,5; 236,75</t>
+          <t>90,69; 237,17</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>85,85; 187,38</t>
+          <t>21,98; 158,27</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>9,54</t>
+          <t>8,44</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,28</t>
+          <t>6,07; 11,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,14</t>
+          <t>4,77; 9,29</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>8,21; 10,69</t>
+          <t>6,31; 9,87</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>144,67%</t>
+          <t>129,92%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>98,11%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>118,75%</t>
+          <t>105,1%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>113,53; 190,41</t>
+          <t>85,45; 173,84</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>71,77; 124,56</t>
+          <t>52,88; 113,18</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>96,85; 141,62</t>
+          <t>75,93; 130,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 1,05</t>
+          <t>-8,47; 1,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,7</t>
+          <t>-4,73; 5,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 13,48</t>
+          <t>0,19; 13,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 1,43</t>
+          <t>-9,38; 1,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 5,24</t>
+          <t>-6,01; 5,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 7,5</t>
+          <t>-3,15; 7,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 0,08</t>
+          <t>-7,47; 0,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,7</t>
+          <t>-4,01; 3,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 8,6</t>
+          <t>0,39; 9,23</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 13,53</t>
+          <t>-58,95; 14,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 62,14</t>
+          <t>-34,88; 72,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 156,51</t>
+          <t>0,49; 153,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,52; 14,51</t>
+          <t>-58,18; 15,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 52,99</t>
+          <t>-39,76; 56,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 79,21</t>
+          <t>-19,58; 72,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,93; 1,16</t>
+          <t>-53,39; 1,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 37,38</t>
+          <t>-28,99; 39,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 87,56</t>
+          <t>1,95; 93,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 1,34</t>
+          <t>-5,09; 1,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 4,31</t>
+          <t>-2,63; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 12,74</t>
+          <t>3,66; 12,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 1,32</t>
+          <t>-5,62; 1,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,71</t>
+          <t>-5,26; 1,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,83</t>
+          <t>3,53; 11,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,12</t>
+          <t>-4,67; 0,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,94</t>
+          <t>-3,26; 1,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,69</t>
+          <t>4,95; 10,94</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 27,97</t>
+          <t>-57,82; 41,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 81,0</t>
+          <t>-30,65; 79,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,41; 238,29</t>
+          <t>37,39; 224,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,17; 19,63</t>
+          <t>-49,77; 16,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,37; 23,77</t>
+          <t>-48,0; 26,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,39; 157,85</t>
+          <t>30,32; 151,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 2,72</t>
+          <t>-46,95; 3,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 29,96</t>
+          <t>-34,91; 27,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,12; 154,98</t>
+          <t>49,43; 157,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,14</t>
+          <t>-3,47; 5,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 6,95</t>
+          <t>-2,0; 6,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 16,66</t>
+          <t>7,03; 17,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 10,09</t>
+          <t>0,13; 10,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,25</t>
+          <t>-0,18; 9,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 17,43</t>
+          <t>8,47; 17,55</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 6,19</t>
+          <t>-0,45; 6,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,03</t>
+          <t>0,45; 6,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,12; 15,62</t>
+          <t>8,87; 15,83</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,64; 110,16</t>
+          <t>-38,56; 110,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 142,83</t>
+          <t>-21,19; 130,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>62,75; 333,03</t>
+          <t>69,67; 361,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 157,14</t>
+          <t>-0,58; 157,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 156,45</t>
+          <t>-3,11; 147,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,09; 271,28</t>
+          <t>75,39; 280,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 91,79</t>
+          <t>-4,62; 97,99</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 107,83</t>
+          <t>5,32; 105,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>89,67; 243,69</t>
+          <t>92,22; 260,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 8,02</t>
+          <t>-0,35; 7,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,92</t>
+          <t>1,52; 9,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,21; 22,5</t>
+          <t>10,37; 23,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 3,2</t>
+          <t>-5,14; 3,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,16</t>
+          <t>-1,1; 8,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 13,12</t>
+          <t>-0,06; 13,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,81</t>
+          <t>-1,33; 4,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,03</t>
+          <t>1,52; 7,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 15,17</t>
+          <t>5,76; 15,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 211,22</t>
+          <t>-6,31; 193,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18,21; 249,18</t>
+          <t>18,6; 245,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>129,18; 572,56</t>
+          <t>125,37; 590,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 42,48</t>
+          <t>-44,16; 47,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 105,93</t>
+          <t>-10,98; 108,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,48; 160,94</t>
+          <t>2,8; 164,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 76,54</t>
+          <t>-15,42; 69,35</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,58; 127,66</t>
+          <t>16,69; 125,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65,98; 236,54</t>
+          <t>72,18; 230,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,45</t>
+          <t>-9,64; 0,61</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 12,31</t>
+          <t>-0,88; 11,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,89; 22,68</t>
+          <t>8,91; 22,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 7,57</t>
+          <t>-1,42; 7,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 10,26</t>
+          <t>0,42; 9,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,11</t>
+          <t>3,52; 17,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,6</t>
+          <t>-4,13; 2,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,17</t>
+          <t>0,84; 8,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,85; 17,38</t>
+          <t>5,92; 17,54</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,37; 12,42</t>
+          <t>-76,39; 14,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 182,54</t>
+          <t>-9,67; 170,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>67,27; 356,47</t>
+          <t>64,13; 344,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,9; 371,5</t>
+          <t>-27,18; 384,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 468,47</t>
+          <t>2,43; 438,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>77,65; 785,75</t>
+          <t>74,83; 843,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 55,47</t>
+          <t>-48,32; 60,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>11,02; 191,56</t>
+          <t>8,72; 181,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>75,03; 347,34</t>
+          <t>74,92; 347,62</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 4,33</t>
+          <t>-5,15; 4,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 8,36</t>
+          <t>-1,79; 8,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>13,43; 24,57</t>
+          <t>13,1; 24,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 7,66</t>
+          <t>-3,58; 7,77</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 6,93</t>
+          <t>-3,6; 7,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,67; 14,47</t>
+          <t>4,09; 14,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,23</t>
+          <t>-2,95; 4,61</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 6,08</t>
+          <t>-1,15; 6,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>10,41; 18,2</t>
+          <t>10,69; 17,87</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 71,3</t>
+          <t>-50,48; 70,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 136,39</t>
+          <t>-18,92; 145,65</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>122,17; 440,02</t>
+          <t>115,39; 429,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 83,51</t>
+          <t>-27,21; 90,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 77,69</t>
+          <t>-26,48; 91,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,89; 170,08</t>
+          <t>26,1; 177,62</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-24,68; 51,82</t>
+          <t>-26,32; 59,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 79,43</t>
+          <t>-10,61; 75,3</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>87,64; 235,77</t>
+          <t>82,69; 223,34</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,36</t>
+          <t>-1,0; 5,58</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,32</t>
+          <t>7,87; 15,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,31; 13,87</t>
+          <t>6,71; 14,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 6,12</t>
+          <t>-0,62; 6,1</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,58</t>
+          <t>8,34; 16,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 6,45</t>
+          <t>-3,89; 6,32</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,89</t>
+          <t>0,26; 5,08</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,2</t>
+          <t>8,86; 14,47</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,56</t>
+          <t>0,02; 8,64</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 95,92</t>
+          <t>-13,82; 102,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>83,97; 275,94</t>
+          <t>90,3; 288,14</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>70,73; 242,4</t>
+          <t>75,18; 258,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 89,8</t>
+          <t>-6,65; 89,34</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>77,52; 247,84</t>
+          <t>80,84; 232,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 87,29</t>
+          <t>-36,95; 83,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>1,17; 71,82</t>
+          <t>2,28; 74,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>98,86; 211,02</t>
+          <t>97,87; 221,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>5,67; 123,85</t>
+          <t>5,66; 125,57</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,48; 7,4</t>
+          <t>1,58; 7,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,53</t>
+          <t>3,61; 9,49</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 8,21</t>
+          <t>-2,47; 8,19</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,25</t>
+          <t>-0,51; 5,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,08</t>
+          <t>1,84; 7,77</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>8,23; 14,43</t>
+          <t>7,84; 13,85</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,49</t>
+          <t>1,22; 5,24</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,55</t>
+          <t>3,53; 7,79</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,02</t>
+          <t>1,48; 10,09</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>20,24; 149,6</t>
+          <t>19,89; 143,69</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>44,74; 186,3</t>
+          <t>48,43; 192,37</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 152,11</t>
+          <t>-29,71; 146,73</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 85,84</t>
+          <t>-6,91; 91,38</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,63; 132,16</t>
+          <t>19,05; 128,61</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>90,69; 237,17</t>
+          <t>88,41; 240,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>16,04; 91,97</t>
+          <t>15,43; 86,3</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>44,53; 127,87</t>
+          <t>44,59; 130,93</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>21,98; 158,27</t>
+          <t>26,19; 164,22</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,48</t>
+          <t>-0,29; 2,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,81</t>
+          <t>3,83; 6,94</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,58</t>
+          <t>5,45; 11,56</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,7</t>
+          <t>-0,36; 2,59</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,98</t>
+          <t>2,91; 6,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,29</t>
+          <t>4,28; 9,3</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,12</t>
+          <t>0,07; 2,06</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,01</t>
+          <t>3,75; 5,85</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,87</t>
+          <t>6,19; 9,98</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 37,52</t>
+          <t>-3,68; 36,48</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>47,44; 103,41</t>
+          <t>47,33; 102,2</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>85,45; 173,84</t>
+          <t>74,99; 171,77</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,63</t>
+          <t>-3,77; 32,41</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>31,07; 74,0</t>
+          <t>30,85; 75,35</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>52,88; 113,18</t>
+          <t>46,84; 112,7</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>1,79; 28,32</t>
+          <t>0,53; 26,89</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>42,87; 79,5</t>
+          <t>44,27; 77,23</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>75,93; 130,08</t>
+          <t>74,99; 130,52</t>
         </is>
       </c>
     </row>
